--- a/Content/TableData/StaffAbility.xlsx
+++ b/Content/TableData/StaffAbility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Documents\Unreal Projects\ProjectMS\Content\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AA05F-4CE1-4530-9833-4E1535BF6FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4B650-9CF3-4FED-A619-29A1AE90A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45105" yWindow="-105" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48615" yWindow="8775" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -840,11 +840,53 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>23</v>
       </c>
